--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3000599.054984831</v>
+        <v>3113040.608151345</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7060897.803020469</v>
+        <v>5851605.615330305</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2162110.882115074</v>
+        <v>864456.6793124477</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5945789.744024366</v>
+        <v>6273731.870946839</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>328.1229395778188</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>350.4078868070117</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,7 +746,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475954</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -786,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>70.60839291403859</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -801,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>29.9715477667648</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -874,13 +876,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>240.3014572266561</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>101.1834695774491</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -911,10 +913,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>74.005365717641</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,7 +1034,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>211.5744117368968</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.76576976472214</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1117,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>122.273497641932</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>185.9569053203822</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>384.8774717948093</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>110.6199347530832</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.0287365903315</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C11" t="n">
-        <v>34.199146220115</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>370.9203488815331</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W11" t="n">
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1528,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041766</v>
+        <v>56.72514580316144</v>
       </c>
       <c r="G13" t="n">
         <v>136.078945437374</v>
@@ -1546,7 +1548,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501634</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>114.8185086482862</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W13" t="n">
         <v>246.7800261198763</v>
@@ -1594,7 +1596,7 @@
         <v>206.4614817925754</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D14" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
@@ -1622,10 +1624,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>316.8402373905461</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y14" t="n">
-        <v>207.9157243043349</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.38739804267547</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>139.8834969875626</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501634</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>155.0289087125508</v>
@@ -1822,13 +1824,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>106.6488155538378</v>
       </c>
       <c r="Y16" t="n">
         <v>192.9893998987849</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D17" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F17" t="n">
         <v>387.3211661995113</v>
@@ -1859,10 +1861,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221264004</v>
       </c>
       <c r="Y17" t="n">
         <v>367.4283645950528</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
         <v>129.8027652540257</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501634</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
@@ -2059,16 +2061,16 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W19" t="n">
         <v>246.7800261198763</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925754</v>
+        <v>52.02018028463732</v>
       </c>
       <c r="Y19" t="n">
-        <v>79.46074098115324</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D20" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F20" t="n">
         <v>387.3211661995113</v>
@@ -2096,10 +2098,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722222</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275031</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T20" t="n">
         <v>190.4854774862717</v>
@@ -2144,7 +2146,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y20" t="n">
         <v>367.4283645950528</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.3237676037659</v>
+        <v>49.56236697288504</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
         <v>207.6543099067269</v>
@@ -2296,7 +2298,7 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>226.516478609777</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W22" t="n">
         <v>246.7800261198763</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415074</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F23" t="n">
         <v>387.3211661995113</v>
@@ -2333,10 +2335,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3237676037659</v>
+        <v>49.56236697288504</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
@@ -2530,7 +2532,7 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
-        <v>59.92462451131695</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
         <v>241.6479458835352</v>
@@ -2539,7 +2541,7 @@
         <v>246.7800261198763</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y25" t="n">
         <v>192.9893998987849</v>
@@ -2564,16 +2566,16 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995121</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397591</v>
       </c>
       <c r="H26" t="n">
         <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975959</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>61.04510745646562</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>29.12203464589642</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501637</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
         <v>241.6479458835353</v>
@@ -2776,10 +2778,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>59.64309870642098</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501637</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U31" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>192.8083146166949</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>380.697871601935</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F32" t="n">
         <v>387.3211661995113</v>
@@ -3047,7 +3049,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332976009</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U32" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967475</v>
       </c>
       <c r="V32" t="n">
         <v>316.8402373905461</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>81.29456033080967</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540257</v>
+        <v>61.04510745646559</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501637</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V34" t="n">
         <v>241.6479458835353</v>
@@ -3253,7 +3255,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019343</v>
+        <v>380.697871601935</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3284,7 +3286,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975958</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,19 +3426,19 @@
         <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D37" t="n">
-        <v>96.30873100144034</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>200.6202780835283</v>
       </c>
       <c r="V37" t="n">
         <v>241.6479458835353</v>
@@ -3521,7 +3523,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975958</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275031</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T38" t="n">
         <v>190.4854774862718</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
-        <v>121.312024866966</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>250.4712242529991</v>
@@ -3721,13 +3723,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198764</v>
+        <v>125.9103462479683</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="41">
@@ -3743,22 +3745,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>248.2727584629195</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>182.1412945836353</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3898,22 +3900,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>80.39732152190635</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>3.913542846909213</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>356.8268763394486</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3989,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>237.1105868890913</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>106.6000686874454</v>
+        <v>64.97216884135977</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1323.942548765929</v>
+        <v>1298.098156350602</v>
       </c>
       <c r="C2" t="n">
-        <v>913.817958079199</v>
+        <v>1292.013969704276</v>
       </c>
       <c r="D2" t="n">
-        <v>913.3944322126636</v>
+        <v>960.5766569994082</v>
       </c>
       <c r="E2" t="n">
-        <v>499.0542167295603</v>
+        <v>546.2364415163049</v>
       </c>
       <c r="F2" t="n">
-        <v>482.0642087236519</v>
+        <v>125.2060294699924</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>120.5181494032287</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>120.5181494032287</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>288.3518581880561</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>541.540257892329</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962253</v>
+        <v>964.349293556064</v>
       </c>
       <c r="M2" t="n">
-        <v>1209.69369432892</v>
+        <v>964.349293556064</v>
       </c>
       <c r="N2" t="n">
-        <v>1726.536628995245</v>
+        <v>1387.158329219799</v>
       </c>
       <c r="O2" t="n">
-        <v>1726.536628995245</v>
+        <v>1387.158329219799</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>1387.158329219799</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="R2" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.766722221062</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="V2" t="n">
-        <v>1730.766722221062</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="W2" t="n">
-        <v>1730.766722221062</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="X2" t="n">
-        <v>1330.123324390014</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.123324390014</v>
+        <v>1708.319336015091</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>712.9972286068362</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>579.0021573557819</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>462.1049995751744</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>341.6121835675023</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>232.6523037500069</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>125.6621910643456</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>54.91497810006165</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>649.7882799466701</v>
       </c>
       <c r="L3" t="n">
-        <v>497.5713418949007</v>
+        <v>935.6658356673728</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.414276561226</v>
+        <v>1358.474871331108</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.568412147452</v>
+        <v>1358.474871331108</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>1358.474871331108</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1358.474871331108</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="R3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="S3" t="n">
-        <v>1980.264271594411</v>
+        <v>1636.997727011012</v>
       </c>
       <c r="T3" t="n">
-        <v>1820.922407781419</v>
+        <v>1636.997727011012</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1439.64691614923</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1225.935389142264</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1012.702220878593</v>
       </c>
       <c r="X3" t="n">
-        <v>1020.300919787893</v>
+        <v>1012.702220878593</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>853.3002612424228</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.1111315252759</v>
+        <v>64.44067739380162</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>64.44067739380162</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>64.44067739380162</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>48.24893612551234</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>202.8012638477503</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>462.6983641278109</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>751.9624205683042</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1292.361813289029</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>1498.037253538641</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1052.352057873164</v>
       </c>
       <c r="U4" t="n">
-        <v>862.4253276531883</v>
+        <v>769.5539104192883</v>
       </c>
       <c r="V4" t="n">
-        <v>588.5395825927103</v>
+        <v>769.5539104192883</v>
       </c>
       <c r="W4" t="n">
-        <v>345.8108379193203</v>
+        <v>490.4842459281626</v>
       </c>
       <c r="X4" t="n">
-        <v>345.8108379193203</v>
+        <v>252.140383787846</v>
       </c>
       <c r="Y4" t="n">
-        <v>345.8108379193203</v>
+        <v>252.140383787846</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1066.588781804577</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C5" t="n">
-        <v>656.4641911178468</v>
+        <v>1671.948915169287</v>
       </c>
       <c r="D5" t="n">
-        <v>656.0406652513113</v>
+        <v>1267.484985262347</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8351404256051</v>
+        <v>853.1447697792441</v>
       </c>
       <c r="F5" t="n">
-        <v>536.8451324196967</v>
+        <v>836.1547617733357</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>427.4264776661679</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>116.5179802938859</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4568,19 +4570,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M5" t="n">
+        <v>497.1688317915616</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1014.011766457887</v>
+      </c>
+      <c r="O5" t="n">
         <v>1530.854701124212</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1530.854701124212</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
         <v>2047.697635790537</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1072.769557428662</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4647,22 +4649,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>537.7254774811266</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>537.7254774811266</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147452</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373.6466025934674</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C7" t="n">
-        <v>373.6466025934674</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D7" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1203.093116471976</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>929.2073714114977</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>650.137706920372</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>411.7938447800554</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="Y7" t="n">
-        <v>411.7938447800554</v>
+        <v>372.3531027449756</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>484.2909016982387</v>
+        <v>888.3313057386429</v>
       </c>
       <c r="C8" t="n">
-        <v>478.2067150519129</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D8" t="n">
         <v>477.7831891853775</v>
@@ -4808,46 +4810,46 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>41.76508562960205</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.293889628578</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1073.062832649525</v>
+        <v>1699.489158455042</v>
       </c>
       <c r="Y8" t="n">
-        <v>672.1261595976147</v>
+        <v>1298.552485403132</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4883,10 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
         <v>508.1659581184966</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.65056416904</v>
+        <v>538.4003990889748</v>
       </c>
       <c r="C10" t="n">
-        <v>369.65056416904</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="D10" t="n">
-        <v>369.65056416904</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E10" t="n">
-        <v>209.0154767040586</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
         <v>41.76508562960205</v>
@@ -4987,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>1299.499495805762</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V10" t="n">
-        <v>1299.499495805762</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="W10" t="n">
-        <v>1020.429831314636</v>
+        <v>650.137706920372</v>
       </c>
       <c r="X10" t="n">
-        <v>782.0859691743196</v>
+        <v>650.137706920372</v>
       </c>
       <c r="Y10" t="n">
-        <v>557.3502705630843</v>
+        <v>650.137706920372</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1207.62570336804</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1173.08111122651</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1173.08111122651</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>788.5378065780917</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F11" t="n">
-        <v>397.3043053664642</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3043053664642</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H11" t="n">
-        <v>116.192718828867</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I11" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>313.8233384483793</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>313.8233384483793</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>313.8233384483793</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.841942333614</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>1789.860546218848</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2433.491402635953</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2962.648100555105</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2962.648100555105</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2981.89334903125</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2876.409184660036</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>2683.999611441579</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>2683.999611441579</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
-        <v>2683.999611441579</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>2330.036221411433</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>1959.18973441507</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>1588.049972197845</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>738.4687088671594</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>604.4736376161051</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>487.5764798354975</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>367.0836638278255</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>258.1237840103301</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>151.1336713246688</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>80.38645836038484</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>252.4507245432582</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>708.2569808085569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>708.2569808085569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>708.2569808085569</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>708.2569808085569</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O12" t="n">
-        <v>1165.017186295981</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>1726.723078784511</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2076.567543468495</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2106.127062831125</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1998.137052945434</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1838.795189132442</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1641.444378270661</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1427.732851263695</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1214.499683000023</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1038.173701138916</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>878.7717415027461</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>940.3933414389676</v>
+        <v>494.3549844251424</v>
       </c>
       <c r="C13" t="n">
-        <v>799.0968798353689</v>
+        <v>494.3549844251424</v>
       </c>
       <c r="D13" t="n">
-        <v>669.3991459929638</v>
+        <v>494.3549844251424</v>
       </c>
       <c r="E13" t="n">
-        <v>538.2852416959681</v>
+        <v>494.3549844251424</v>
       </c>
       <c r="F13" t="n">
-        <v>403.4510266412442</v>
+        <v>437.056857351242</v>
       </c>
       <c r="G13" t="n">
-        <v>265.9975464014725</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H13" t="n">
-        <v>146.187002041614</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I13" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>102.9243686949102</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6806487262228</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L13" t="n">
-        <v>575.781701315358</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>894.2497100649259</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N13" t="n">
-        <v>1204.292444768251</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O13" t="n">
-        <v>1493.0570074038</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P13" t="n">
-        <v>1727.936399962487</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q13" t="n">
-        <v>1822.668382074072</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1767.192574584157</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1767.192574584157</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T13" t="n">
-        <v>1651.214283020231</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="U13" t="n">
-        <v>1398.21304640104</v>
+        <v>1391.202311389558</v>
       </c>
       <c r="V13" t="n">
-        <v>1398.21304640104</v>
+        <v>1147.113477163765</v>
       </c>
       <c r="W13" t="n">
-        <v>1148.940292744599</v>
+        <v>897.8407235073246</v>
       </c>
       <c r="X13" t="n">
-        <v>940.3933414389676</v>
+        <v>689.2937722016928</v>
       </c>
       <c r="Y13" t="n">
-        <v>940.3933414389676</v>
+        <v>494.3549844251424</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1926.679503571248</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1926.679503571248</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1552.012484498993</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1167.469179850575</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>776.2356786389471</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3043053664642</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H14" t="n">
-        <v>116.192718828867</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I14" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>313.8233384483793</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>847.0958432271079</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1559.687243039346</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2297.70584692458</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2297.70584692458</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2941.336703341685</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2941.336703341685</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2941.336703341685</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2981.89334903125</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2876.409184660036</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>2683.999611441579</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U14" t="n">
-        <v>2456.736030535774</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V14" t="n">
-        <v>2136.69538670694</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W14" t="n">
-        <v>2136.69538670694</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>2136.69538670694</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>1926.679503571248</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>738.4687088671594</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>604.4736376161051</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>487.5764798354975</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>367.0836638278255</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>258.1237840103301</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>151.1336713246688</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>80.38645836038484</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>252.4507245432582</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>708.2569808085569</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>708.2569808085569</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>1446.275584693791</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N15" t="n">
-        <v>1726.723078784511</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>1726.723078784511</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>1726.723078784511</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2076.567543468495</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2106.127062831125</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1998.137052945434</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1838.795189132442</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1641.444378270661</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1427.732851263695</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1214.499683000023</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1038.173701138916</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>878.7717415027461</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>940.3933414389676</v>
+        <v>440.8998387150689</v>
       </c>
       <c r="C16" t="n">
-        <v>799.0968798353689</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="D16" t="n">
-        <v>669.3991459929638</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="E16" t="n">
-        <v>538.2852416959681</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="F16" t="n">
-        <v>403.4510266412442</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G16" t="n">
-        <v>265.9975464014725</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H16" t="n">
-        <v>146.187002041614</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I16" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>102.9243686949102</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6806487262228</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L16" t="n">
-        <v>575.781701315358</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>894.2497100649259</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N16" t="n">
-        <v>1204.292444768251</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O16" t="n">
-        <v>1493.0570074038</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P16" t="n">
-        <v>1727.936399962487</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q16" t="n">
-        <v>1822.668382074072</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1767.192574584157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1610.597717298752</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.845889110139</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U16" t="n">
-        <v>1147.844652490948</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V16" t="n">
-        <v>1147.844652490948</v>
+        <v>992.8374564650679</v>
       </c>
       <c r="W16" t="n">
-        <v>1147.844652490948</v>
+        <v>743.5647028086272</v>
       </c>
       <c r="X16" t="n">
-        <v>1147.844652490948</v>
+        <v>635.8386264916193</v>
       </c>
       <c r="Y16" t="n">
-        <v>952.9058647143974</v>
+        <v>440.8998387150689</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D17" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F17" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5543,16 +5545,16 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X17" t="n">
         <v>3092.17704518032</v>
@@ -5592,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>2083.796217986828</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>485.4646079510756</v>
+        <v>440.6044708910125</v>
       </c>
       <c r="C19" t="n">
-        <v>344.168146347477</v>
+        <v>440.6044708910125</v>
       </c>
       <c r="D19" t="n">
-        <v>344.168146347477</v>
+        <v>310.9067370486074</v>
       </c>
       <c r="E19" t="n">
-        <v>213.0542420504813</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="F19" t="n">
-        <v>213.0542420504813</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G19" t="n">
-        <v>213.0542420504813</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K19" t="n">
         <v>320.2864794362206</v>
@@ -5680,13 +5682,13 @@
         <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P19" t="n">
         <v>1761.542230672484</v>
@@ -5698,25 +5700,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V19" t="n">
-        <v>1181.450483200945</v>
+        <v>937.3616489751524</v>
       </c>
       <c r="W19" t="n">
-        <v>932.1777295445045</v>
+        <v>688.0888953187117</v>
       </c>
       <c r="X19" t="n">
-        <v>723.6307782388727</v>
+        <v>635.5432586675629</v>
       </c>
       <c r="Y19" t="n">
-        <v>643.3674035104351</v>
+        <v>440.6044708910125</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5734,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E20" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G20" t="n">
-        <v>430.910136076462</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>741.8628115185547</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>354.0553358300236</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C22" t="n">
-        <v>354.0553358300236</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>224.3576019876185</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
         <v>93.2436976906228</v>
@@ -5908,7 +5910,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K22" t="n">
         <v>320.2864794362206</v>
@@ -5917,13 +5919,13 @@
         <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
@@ -5932,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T22" t="n">
-        <v>1646.522384595457</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U22" t="n">
-        <v>1393.521147976266</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V22" t="n">
-        <v>1164.716624128006</v>
+        <v>937.3616489751524</v>
       </c>
       <c r="W22" t="n">
-        <v>915.4438704715652</v>
+        <v>688.0888953187117</v>
       </c>
       <c r="X22" t="n">
-        <v>706.8969191659335</v>
+        <v>479.54194401308</v>
       </c>
       <c r="Y22" t="n">
-        <v>511.9581313893831</v>
+        <v>284.6031562365296</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5971,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E23" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -6017,19 +6019,19 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
         <v>2721.037282963096</v>
@@ -6066,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>583.194432343103</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C25" t="n">
-        <v>583.194432343103</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>583.194432343103</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>452.0805280461074</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>317.2463129913835</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K25" t="n">
         <v>320.2864794362206</v>
@@ -6154,13 +6156,13 @@
         <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6169,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T25" t="n">
-        <v>1489.927527310052</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U25" t="n">
-        <v>1429.397603561247</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V25" t="n">
-        <v>1185.308769335454</v>
+        <v>937.3616489751524</v>
       </c>
       <c r="W25" t="n">
-        <v>936.036015679013</v>
+        <v>688.0888953187117</v>
       </c>
       <c r="X25" t="n">
-        <v>936.036015679013</v>
+        <v>479.54194401308</v>
       </c>
       <c r="Y25" t="n">
-        <v>741.0972279024626</v>
+        <v>284.6031562365296</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6214,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G26" t="n">
         <v>430.910136076462</v>
@@ -6224,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6309,22 +6311,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>746.1513441613517</v>
+        <v>222.941431533028</v>
       </c>
       <c r="C28" t="n">
-        <v>604.8548825577531</v>
+        <v>222.941431533028</v>
       </c>
       <c r="D28" t="n">
-        <v>475.1571487153479</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>344.0432444183523</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>209.2090293636284</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6388,7 +6390,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M28" t="n">
         <v>927.8555407749236</v>
@@ -6415,19 +6417,19 @@
         <v>1434.451719820136</v>
       </c>
       <c r="U28" t="n">
-        <v>1434.451719820136</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.362885594343</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W28" t="n">
-        <v>941.0901319379022</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X28" t="n">
-        <v>941.0901319379022</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y28" t="n">
-        <v>746.1513441613517</v>
+        <v>284.6031562365286</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6442,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G29" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>592.7987223006619</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>592.7987223006619</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1435.775802995229</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>581.9009324946113</v>
+        <v>284.6031562365286</v>
       </c>
       <c r="C31" t="n">
-        <v>440.6044708910126</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="D31" t="n">
-        <v>310.9067370486075</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E31" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6625,7 +6627,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M31" t="n">
         <v>927.8555407749236</v>
@@ -6646,25 +6648,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T31" t="n">
-        <v>1591.046577105541</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U31" t="n">
-        <v>1338.04534048635</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V31" t="n">
-        <v>1143.289467136153</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W31" t="n">
-        <v>1143.289467136153</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X31" t="n">
-        <v>934.7425158305214</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y31" t="n">
-        <v>739.8037280539709</v>
+        <v>284.6031562365286</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6679,70 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D32" t="n">
         <v>1585.618315208992</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F32" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G32" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388654</v>
       </c>
       <c r="I32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062284</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674179</v>
       </c>
       <c r="L32" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079656</v>
       </c>
       <c r="M32" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.49866107141</v>
       </c>
       <c r="N32" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710028</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127133</v>
       </c>
       <c r="P32" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046285</v>
       </c>
       <c r="Q32" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841577</v>
       </c>
       <c r="R32" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531142</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159927</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941471</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035666</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176685</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.177045180322</v>
       </c>
       <c r="Y32" t="n">
         <v>2721.037282963096</v>
@@ -6765,40 +6767,40 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G33" t="n">
         <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>113.9922890703826</v>
+        <v>113.9922890703827</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062284</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062284</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>839.8680207514396</v>
+        <v>284.6031562365286</v>
       </c>
       <c r="C34" t="n">
-        <v>698.571559147841</v>
+        <v>284.6031562365286</v>
       </c>
       <c r="D34" t="n">
-        <v>616.4558416419726</v>
+        <v>154.9054223941234</v>
       </c>
       <c r="E34" t="n">
-        <v>485.3419373449769</v>
+        <v>93.24369769062284</v>
       </c>
       <c r="F34" t="n">
-        <v>350.5077222902531</v>
+        <v>93.24369769062284</v>
       </c>
       <c r="G34" t="n">
-        <v>213.0542420504813</v>
+        <v>93.24369769062284</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062284</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062284</v>
       </c>
       <c r="J34" t="n">
         <v>136.5301994049079</v>
@@ -6862,7 +6864,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M34" t="n">
         <v>927.8555407749236</v>
@@ -6880,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S34" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T34" t="n">
-        <v>1699.679355498665</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U34" t="n">
-        <v>1699.679355498665</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V34" t="n">
-        <v>1455.590521272872</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W34" t="n">
-        <v>1206.317767616431</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X34" t="n">
-        <v>997.7708163107992</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y34" t="n">
-        <v>997.7708163107992</v>
+        <v>284.6031562365286</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6919,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E35" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489449</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H35" t="n">
         <v>149.7985495388648</v>
@@ -7020,22 +7022,22 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.13812587521</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N36" t="n">
-        <v>1210.13812587521</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O36" t="n">
-        <v>1789.888428857139</v>
+        <v>1253.007044501816</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>1814.712936990346</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>321.6391484537198</v>
+        <v>371.9936395339932</v>
       </c>
       <c r="C37" t="n">
-        <v>321.6391484537198</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="D37" t="n">
-        <v>224.3576019876185</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7099,7 +7101,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M37" t="n">
         <v>927.8555407749236</v>
@@ -7126,19 +7128,19 @@
         <v>1434.451719820136</v>
       </c>
       <c r="U37" t="n">
-        <v>1181.450483200945</v>
+        <v>1231.804974281219</v>
       </c>
       <c r="V37" t="n">
-        <v>937.361648975152</v>
+        <v>987.7161400554254</v>
       </c>
       <c r="W37" t="n">
-        <v>688.0888953187111</v>
+        <v>738.4433863989846</v>
       </c>
       <c r="X37" t="n">
-        <v>479.5419440130794</v>
+        <v>529.8964350933528</v>
       </c>
       <c r="Y37" t="n">
-        <v>479.5419440130794</v>
+        <v>529.8964350933528</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G38" t="n">
         <v>430.910136076462</v>
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M39" t="n">
-        <v>874.0699105066985</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N39" t="n">
-        <v>874.0699105066985</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>688.0888953187111</v>
+        <v>458.5427745949823</v>
       </c>
       <c r="C40" t="n">
-        <v>565.5514964631899</v>
+        <v>317.2463129913836</v>
       </c>
       <c r="D40" t="n">
-        <v>565.5514964631899</v>
+        <v>317.2463129913836</v>
       </c>
       <c r="E40" t="n">
-        <v>434.4375921661942</v>
+        <v>317.2463129913836</v>
       </c>
       <c r="F40" t="n">
-        <v>299.6033771114703</v>
+        <v>317.2463129913836</v>
       </c>
       <c r="G40" t="n">
-        <v>299.6033771114703</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H40" t="n">
         <v>179.7928327516118</v>
@@ -7336,7 +7338,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M40" t="n">
         <v>927.8555407749236</v>
@@ -7360,22 +7362,22 @@
         <v>1644.203548008749</v>
       </c>
       <c r="T40" t="n">
-        <v>1434.451719820136</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="U40" t="n">
-        <v>1181.450483200945</v>
+        <v>1391.202311389558</v>
       </c>
       <c r="V40" t="n">
-        <v>937.361648975152</v>
+        <v>1147.113477163765</v>
       </c>
       <c r="W40" t="n">
-        <v>688.0888953187111</v>
+        <v>1019.931309236524</v>
       </c>
       <c r="X40" t="n">
-        <v>688.0888953187111</v>
+        <v>811.3843579308924</v>
       </c>
       <c r="Y40" t="n">
-        <v>688.0888953187111</v>
+        <v>616.4455701543419</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1129.271305878482</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C41" t="n">
-        <v>719.1467151917519</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D41" t="n">
-        <v>719.1467151917519</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E41" t="n">
-        <v>468.3661510877928</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F41" t="n">
-        <v>468.3661510877928</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G41" t="n">
-        <v>59.63786698062501</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>59.63786698062501</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>313.8233384483793</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>640.4089949297693</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
-        <v>1353.000394742007</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.018998627242</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2091.018998627242</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2091.018998627242</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2620.175696546393</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2941.336703341685</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>2981.89334903125</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>2981.89334903125</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>2981.89334903125</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U41" t="n">
-        <v>2724.83285729076</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V41" t="n">
-        <v>2724.83285729076</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W41" t="n">
-        <v>2341.072556425929</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X41" t="n">
-        <v>1940.429158594881</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y41" t="n">
-        <v>1539.492485542971</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>738.4687088671594</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>604.4736376161051</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>487.5764798354975</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>367.0836638278255</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>258.1237840103301</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>151.1336713246688</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>80.38645836038484</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>59.63786698062501</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>797.6564708658593</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N42" t="n">
-        <v>1535.675074751094</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
-        <v>2106.127062831125</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2106.127062831125</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2106.127062831125</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2106.127062831125</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>1998.137052945434</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1838.795189132442</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1641.444378270661</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1427.732851263695</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1214.499683000023</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1038.173701138916</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>878.7717415027461</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>577.894156187819</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="C43" t="n">
-        <v>406.8007837495355</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="D43" t="n">
-        <v>406.8007837495355</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="E43" t="n">
-        <v>406.8007837495355</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F43" t="n">
-        <v>406.8007837495355</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G43" t="n">
-        <v>325.5913680708422</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9839128762989</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>73.72041638583553</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>228.2727441080735</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>488.169844388134</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>777.4339008286273</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1058.272683222878</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1317.833293549352</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1523.508733798964</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1589.036763601475</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1503.764045276875</v>
+        <v>1618.689520728736</v>
       </c>
       <c r="S43" t="n">
-        <v>1503.764045276875</v>
+        <v>1618.689520728736</v>
       </c>
       <c r="T43" t="n">
-        <v>1264.215306253577</v>
+        <v>1618.689520728736</v>
       </c>
       <c r="U43" t="n">
-        <v>1264.215306253577</v>
+        <v>1335.891373274861</v>
       </c>
       <c r="V43" t="n">
-        <v>990.3295611930987</v>
+        <v>1062.005628214383</v>
       </c>
       <c r="W43" t="n">
-        <v>990.3295611930987</v>
+        <v>782.9359637232569</v>
       </c>
       <c r="X43" t="n">
-        <v>990.3295611930987</v>
+        <v>782.9359637232569</v>
       </c>
       <c r="Y43" t="n">
-        <v>765.5938625818634</v>
+        <v>558.2002651120216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1795.948777786637</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>1385.824187099907</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D44" t="n">
-        <v>981.3602571929675</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E44" t="n">
-        <v>567.0200417098642</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F44" t="n">
-        <v>145.9896296635519</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G44" t="n">
-        <v>145.9896296635519</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H44" t="n">
-        <v>145.9896296635519</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>313.8233384483793</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>313.8233384483793</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>313.8233384483793</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.841942333614</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1789.860546218848</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2091.018998627242</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2620.175696546393</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2941.336703341685</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2981.89334903125</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2846.612273825351</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2846.612273825351</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2846.612273825351</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2607.106630503037</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2607.106630503037</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2607.106630503037</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2206.169957451127</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>738.4687088671594</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>604.4736376161051</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>487.5764798354975</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>367.0836638278255</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>258.1237840103301</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>151.1336713246688</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>80.38645836038484</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>515.4441232459237</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>515.4441232459237</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M45" t="n">
-        <v>515.4441232459237</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N45" t="n">
-        <v>1253.462727131158</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O45" t="n">
-        <v>1253.462727131158</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P45" t="n">
-        <v>1726.723078784511</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q45" t="n">
-        <v>2076.567543468495</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2106.127062831125</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1998.137052945434</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1838.795189132442</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1641.444378270661</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1427.732851263695</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1214.499683000023</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1038.173701138916</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>878.7717415027461</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>224.2689928700337</v>
+        <v>850.6960310278942</v>
       </c>
       <c r="C46" t="n">
-        <v>224.2689928700337</v>
+        <v>679.6026585896107</v>
       </c>
       <c r="D46" t="n">
-        <v>224.2689928700337</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="E46" t="n">
-        <v>224.2689928700337</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F46" t="n">
-        <v>59.63786698062501</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G46" t="n">
-        <v>59.63786698062501</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>59.63786698062501</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>59.63786698062501</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>73.72041638583553</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>228.2727441080735</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>488.169844388134</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>777.4339008286273</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1058.272683222878</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1317.833293549352</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1523.508733798964</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1589.036763601475</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1503.764045276875</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1317.372277156785</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1077.823538133487</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>795.0253906796113</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V46" t="n">
-        <v>687.3485536215857</v>
+        <v>1317.465401913064</v>
       </c>
       <c r="W46" t="n">
-        <v>687.3485536215857</v>
+        <v>1038.395737421939</v>
       </c>
       <c r="X46" t="n">
-        <v>449.004691481269</v>
+        <v>1038.395737421939</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.2689928700337</v>
+        <v>1038.395737421939</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>344.8822479603615</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>522.5652320666176</v>
       </c>
       <c r="M2" t="n">
-        <v>228.888951090043</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>519.9921247603921</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
@@ -8000,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>482.9056167883882</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>344.8797316095387</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>484.6441177421902</v>
       </c>
       <c r="N3" t="n">
-        <v>93.75312630912974</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8216,22 +8218,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M5" t="n">
-        <v>553.2940084590249</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8295,25 +8297,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>557.0846165901669</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>266.9965351298663</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8456,7 +8458,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>272.0504334731806</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
@@ -8468,13 +8470,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>553.6531472828635</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>332.4660540393959</v>
+        <v>66.8161563599358</v>
       </c>
       <c r="M9" t="n">
         <v>579.627854108443</v>
@@ -8690,16 +8692,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>838.763561714858</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>838.3856280144319</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8708,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R11" t="n">
-        <v>106.7517877401232</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>519.1254239367925</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>627.7954854093066</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>838.763561714858</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,10 +9014,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.03762099623</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>336.4736904550836</v>
+        <v>613.6913745331453</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
@@ -9024,10 +9026,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9240,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9255,16 +9257,16 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>114.253171479086</v>
+        <v>204.0221919942796</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N21" t="n">
-        <v>186.7359176241983</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9653,7 +9655,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
@@ -9714,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>584.8995157759063</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,13 +9959,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>711.6624984671718</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
@@ -9975,7 +9977,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>365.6663555597729</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>498.0116489728624</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,19 +10430,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>115.3859917360771</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10449,7 +10451,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10668,7 +10670,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10677,16 +10679,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>643.3578456484137</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>355.137504553472</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10832,7 +10834,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
         <v>743.321953824879</v>
@@ -10899,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
@@ -10908,22 +10910,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>846.2776300172818</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>695.4234724815018</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
-        <v>419.0208911695706</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>838.763561714858</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11142,16 +11144,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>803.03762099623</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>798.6667306515625</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O42" t="n">
-        <v>633.965608373769</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11297,25 +11299,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>838.763561714858</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>838.3856280144319</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>397.3902326039586</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11376,28 +11378,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>798.6667306515625</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>532.3003942486152</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>342.3252568334096</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>370.920348881532</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397581</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>76.76072710101519</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>92.83580125844067</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415066</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535246</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>367.138022126399</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>159.5126402907179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>143.9363695610905</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925754</v>
+        <v>99.81266623873758</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>154.4413015079381</v>
       </c>
       <c r="Y19" t="n">
-        <v>113.5286589176317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>106.7614006308809</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
         <v>133.4858729041766</v>
@@ -24145,7 +24147,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501634</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>15.13146727375829</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>106.7614006308809</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501634</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>190.5465997416821</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>95.27866014730037</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>106.9569107914776</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>80.24039828114172</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>48.83963126684034</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
-        <v>47.10619617317141</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>68.75765779756017</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>32.09202550254075</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F37" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>49.85094616947086</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>18.57147212059664</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>120.8696798719081</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9240548653528</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>222.4997066824608</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>85.18056564180566</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>80.50644829444514</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>49.19646844041398</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>109.2285922277928</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>164.5468189224279</v>
+        <v>206.1747187685135</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>543562.8684482123</v>
+        <v>538974.4823795459</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434434.0222025802</v>
+        <v>548242.2413138521</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434434.0222025802</v>
+        <v>548242.2413138521</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>548242.2413138519</v>
+        <v>548242.2413138521</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>548242.2413138519</v>
+        <v>548242.2413138521</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>548242.2413138519</v>
+        <v>548242.241313852</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>548242.2413138519</v>
+        <v>548242.241313852</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>548242.2413138519</v>
+        <v>548242.241313852</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>548242.241313852</v>
+        <v>548242.2413138521</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394056.1987958006</v>
+        <v>507864.4179070726</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394056.1987958007</v>
+        <v>507864.4179070725</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>635241.3328265818</v>
+      </c>
+      <c r="C2" t="n">
         <v>635241.3328265821</v>
-      </c>
-      <c r="C2" t="n">
-        <v>635241.3328265822</v>
       </c>
       <c r="D2" t="n">
         <v>635241.3328265822</v>
       </c>
       <c r="E2" t="n">
-        <v>489091.5237867706</v>
+        <v>615612.8085600276</v>
       </c>
       <c r="F2" t="n">
-        <v>489091.5237867704</v>
+        <v>615612.808560028</v>
       </c>
       <c r="G2" t="n">
-        <v>615612.8085600279</v>
+        <v>615612.8085600275</v>
       </c>
       <c r="H2" t="n">
-        <v>615612.8085600277</v>
+        <v>615612.8085600276</v>
       </c>
       <c r="I2" t="n">
-        <v>615612.8085600279</v>
+        <v>615612.8085600276</v>
       </c>
       <c r="J2" t="n">
-        <v>615612.8085600273</v>
+        <v>615612.808560027</v>
       </c>
       <c r="K2" t="n">
         <v>615612.8085600274</v>
       </c>
       <c r="L2" t="n">
-        <v>615612.8085600272</v>
+        <v>615612.8085600275</v>
       </c>
       <c r="M2" t="n">
         <v>615612.8085600272</v>
       </c>
       <c r="N2" t="n">
-        <v>615612.8085600272</v>
+        <v>615612.8085600274</v>
       </c>
       <c r="O2" t="n">
-        <v>438293.616920177</v>
+        <v>564814.9016934327</v>
       </c>
       <c r="P2" t="n">
-        <v>438293.616920177</v>
+        <v>564814.9016934329</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>143124.2752108463</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30686.46086668844</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>90304.39475889207</v>
+        <v>215728.9162805136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>115135.6763768718</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>160193.9541869654</v>
+        <v>135342.0294691535</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24445.77426110975</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>55674.60754750406</v>
+        <v>160358.4505006826</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193745.8212557931</v>
+        <v>214756.4453361013</v>
       </c>
       <c r="C4" t="n">
         <v>193745.8212557931</v>
@@ -26424,40 +26426,40 @@
         <v>193745.8212557931</v>
       </c>
       <c r="E4" t="n">
-        <v>76018.52190471164</v>
+        <v>89457.14057469093</v>
       </c>
       <c r="F4" t="n">
-        <v>76018.52190471167</v>
+        <v>89457.14057469094</v>
       </c>
       <c r="G4" t="n">
-        <v>89457.1405746909</v>
+        <v>89457.14057469093</v>
       </c>
       <c r="H4" t="n">
-        <v>89457.14057469091</v>
+        <v>89457.14057469093</v>
       </c>
       <c r="I4" t="n">
+        <v>89457.14057469093</v>
+      </c>
+      <c r="J4" t="n">
+        <v>89457.14057469089</v>
+      </c>
+      <c r="K4" t="n">
         <v>89457.14057469087</v>
       </c>
-      <c r="J4" t="n">
-        <v>89457.1405746909</v>
-      </c>
-      <c r="K4" t="n">
-        <v>89457.14057469091</v>
-      </c>
       <c r="L4" t="n">
-        <v>89457.14057469086</v>
+        <v>89457.14057469087</v>
       </c>
       <c r="M4" t="n">
-        <v>89457.14057469089</v>
+        <v>89457.14057469087</v>
       </c>
       <c r="N4" t="n">
         <v>89457.14057469089</v>
       </c>
       <c r="O4" t="n">
-        <v>46208.49248784273</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="P4" t="n">
-        <v>46208.49248784273</v>
+        <v>59647.11115782197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>59594.05390742938</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26476,19 +26478,19 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>47804.72543726651</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="F5" t="n">
-        <v>47804.72543726651</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26497,7 +26499,7 @@
         <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686485</v>
       </c>
       <c r="M5" t="n">
         <v>73345.15677686482</v>
@@ -26506,10 +26508,10 @@
         <v>73345.15677686482</v>
       </c>
       <c r="O5" t="n">
-        <v>45324.778905275</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>45324.778905275</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201170.9365991774</v>
+        <v>217766.5583722047</v>
       </c>
       <c r="C6" t="n">
-        <v>376126.4464922916</v>
+        <v>345439.9856256031</v>
       </c>
       <c r="D6" t="n">
         <v>376126.4464922916</v>
       </c>
       <c r="E6" t="n">
-        <v>274963.8816859004</v>
+        <v>237081.5949279582</v>
       </c>
       <c r="F6" t="n">
-        <v>365268.2764447922</v>
+        <v>452810.5112084722</v>
       </c>
       <c r="G6" t="n">
-        <v>337674.8348316003</v>
+        <v>452810.5112084718</v>
       </c>
       <c r="H6" t="n">
-        <v>452810.511208472</v>
+        <v>452810.5112084719</v>
       </c>
       <c r="I6" t="n">
-        <v>452810.5112084721</v>
+        <v>452810.5112084719</v>
       </c>
       <c r="J6" t="n">
-        <v>292616.5570215062</v>
+        <v>317468.4817393178</v>
       </c>
       <c r="K6" t="n">
+        <v>428364.736947362</v>
+      </c>
+      <c r="L6" t="n">
+        <v>452810.5112084718</v>
+      </c>
+      <c r="M6" t="n">
+        <v>292452.0607077889</v>
+      </c>
+      <c r="N6" t="n">
         <v>452810.5112084717</v>
       </c>
-      <c r="L6" t="n">
-        <v>452810.5112084714</v>
-      </c>
-      <c r="M6" t="n">
-        <v>397135.9036609674</v>
-      </c>
-      <c r="N6" t="n">
-        <v>452810.5112084714</v>
-      </c>
       <c r="O6" t="n">
-        <v>346760.3455270592</v>
+        <v>434302.5802907374</v>
       </c>
       <c r="P6" t="n">
-        <v>346760.3455270593</v>
+        <v>434302.5802907377</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26796,10 +26798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>745.4733372578125</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>745.4733372578125</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>745.4733372578125</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>745.4733372578125</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.98373636625278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>223.4097668877869</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>420.0728838749724</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625278</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>223.4097668877869</v>
+        <v>643.482650762759</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625278</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>223.4097668877869</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>420.0728838749724</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
+        <v>72.2963510300512</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>54.23311445908439</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27442,7 +27444,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27506,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>36.30171687279567</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>129.3301592135989</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27555,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>35.97751061955827</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>309.0133437508231</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>11.48287933845657</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27682,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.0569395653818</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>100.214843983191</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>220.1620625474623</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -27916,7 +27918,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>11.75949205792773</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>75.20277457702075</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2729703900322136</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633719</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633719</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="41">
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>255.7458582871444</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="M2" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>288.7652077986896</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="N3" t="n">
-        <v>40.55973291537975</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="M5" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
@@ -35188,13 +35190,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>276.3515302285468</v>
+        <v>10.70163254908676</v>
       </c>
       <c r="M9" t="n">
         <v>522.0635703700256</v>
@@ -35410,16 +35412,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>745.4733372578125</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>745.4733372578125</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35428,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R11" t="n">
-        <v>19.43964492539966</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3739449367924</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533854</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35574,19 +35576,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>538.6590957360895</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>745.4733372578125</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>745.4733372578125</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>283.2802970613336</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533854</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35811,19 +35813,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N16" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>56.50169247908597</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533854</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36048,19 +36050,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N19" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P19" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N21" t="n">
-        <v>133.5425242304483</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533854</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36285,19 +36287,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N22" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P22" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>530.6398807731025</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533854</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36522,19 +36524,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>658.4691050734218</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K28" t="n">
         <v>185.6124040720329</v>
@@ -36771,7 +36773,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>309.8405727751575</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>443.7520139700587</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K31" t="n">
         <v>185.6124040720329</v>
@@ -37008,7 +37010,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,19 +37074,19 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L32" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396344</v>
       </c>
       <c r="M32" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N32" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O32" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P32" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>57.63451273607708</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K34" t="n">
         <v>185.6124040720329</v>
@@ -37245,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37388,7 +37390,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>585.6063666484137</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>298.4448860486332</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K37" t="n">
         <v>185.6124040720329</v>
@@ -37482,7 +37484,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37552,7 +37554,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>788.7133462788644</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>637.6719934815018</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
@@ -37719,7 +37721,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
-        <v>329.8845014963535</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>745.4733372578125</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>745.4733372578125</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>745.4733372578125</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="O42" t="n">
-        <v>576.214129373769</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>745.4733372578125</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>745.4733372578125</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>304.2004569781755</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38096,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>745.4733372578125</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>478.0407592458115</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3113040.608151345</v>
+        <v>3112314.009280121</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330305</v>
+        <v>5851605.615330301</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124477</v>
+        <v>864456.6793124476</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6273731.870946839</v>
+        <v>6273731.870946838</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>328.1229395778188</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>112.9400312427141</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>55.04634263617186</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>70.60839291403859</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -803,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -819,16 +819,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>29.9715477667648</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -873,16 +873,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>257.0324376974858</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>74.005365717641</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>308.249677090819</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368968</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>180.6077930059088</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.273497641932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>252.191025084668</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>384.8774717948093</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.6199347530832</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1353,7 +1353,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>30.60798014229324</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>376.5244030535245</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9203488815331</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
         <v>380.6978716019342</v>
@@ -1438,7 +1438,7 @@
         <v>367.1380221263989</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950539</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.17428891464814</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>56.72514580316144</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>85.68364371037907</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
         <v>250.4712242529991</v>
@@ -1596,7 +1596,7 @@
         <v>206.4614817925754</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275021</v>
+        <v>104.429322727504</v>
       </c>
       <c r="T14" t="n">
         <v>190.4854774862717</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>44.14736003608533</v>
       </c>
       <c r="I16" t="n">
         <v>85.68364371037907</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>207.6543099067269</v>
@@ -1830,7 +1830,7 @@
         <v>246.7800261198763</v>
       </c>
       <c r="X16" t="n">
-        <v>106.6488155538378</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y16" t="n">
         <v>192.9893998987849</v>
@@ -1909,7 +1909,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221264004</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y17" t="n">
         <v>367.4283645950528</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D19" t="n">
         <v>128.4007565039811</v>
@@ -2013,16 +2013,16 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
@@ -2058,16 +2058,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>159.2905049409887</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>52.02018028463732</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y19" t="n">
         <v>192.9893998987849</v>
@@ -2098,10 +2098,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722222</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.56236697288504</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875626</v>
+        <v>88.04314577169811</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>155.0289087125508</v>
@@ -2329,7 +2329,7 @@
         <v>380.6978716019342</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995123</v>
       </c>
       <c r="G23" t="n">
         <v>375.1420595397581</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56236697288504</v>
+        <v>103.7622202500686</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397591</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
         <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.04510745646562</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.47864324107397</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>59.64309870642098</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.359502061318297</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
         <v>250.4712242529991</v>
@@ -3018,7 +3018,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332976009</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U32" t="n">
-        <v>224.9909450967475</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V32" t="n">
         <v>316.8402373905461</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>61.04510745646559</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125509</v>
+        <v>103.1885574966856</v>
       </c>
       <c r="T34" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
         <v>250.4712242529991</v>
@@ -3255,7 +3255,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D35" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.697871601935</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3283,10 +3283,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
         <v>224.990945096747</v>
@@ -3331,7 +3331,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y35" t="n">
         <v>367.4283645950528</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>33.12209635668177</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501638</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>200.6202780835283</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C38" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D38" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F38" t="n">
         <v>387.3211661995113</v>
@@ -3520,10 +3520,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I38" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U38" t="n">
         <v>224.990945096747</v>
@@ -3568,7 +3568,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y38" t="n">
         <v>367.4283645950528</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>103.1885574966864</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W40" t="n">
-        <v>125.9103462479683</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1412945836353</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>42.43741174507669</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.913542846909213</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3979,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>356.8268763394486</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V46" t="n">
-        <v>64.97216884135977</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.098156350602</v>
+        <v>590.7730424280437</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.013969704276</v>
+        <v>584.6888557817178</v>
       </c>
       <c r="D2" t="n">
-        <v>960.5766569994082</v>
+        <v>584.2653299151824</v>
       </c>
       <c r="E2" t="n">
-        <v>546.2364415163049</v>
+        <v>169.9251144320791</v>
       </c>
       <c r="F2" t="n">
-        <v>125.2060294699924</v>
+        <v>152.9351064261707</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032287</v>
+        <v>148.247226359407</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032287</v>
+        <v>34.16638672030186</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030182</v>
+        <v>34.16638672030186</v>
       </c>
       <c r="J2" t="n">
-        <v>288.3518581880561</v>
+        <v>34.16638672030186</v>
       </c>
       <c r="K2" t="n">
-        <v>541.540257892329</v>
+        <v>34.16638672030186</v>
       </c>
       <c r="L2" t="n">
-        <v>964.349293556064</v>
+        <v>456.9754223840373</v>
       </c>
       <c r="M2" t="n">
-        <v>964.349293556064</v>
+        <v>879.7844580477728</v>
       </c>
       <c r="N2" t="n">
-        <v>1387.158329219799</v>
+        <v>1302.593493711508</v>
       </c>
       <c r="O2" t="n">
-        <v>1387.158329219799</v>
+        <v>1387.158329219801</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.158329219799</v>
+        <v>1387.158329219801</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015091</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015091</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015091</v>
+        <v>1573.038260809194</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015091</v>
+        <v>1350.831776756052</v>
       </c>
       <c r="U2" t="n">
-        <v>1708.319336015091</v>
+        <v>1350.831776756052</v>
       </c>
       <c r="V2" t="n">
-        <v>1708.319336015091</v>
+        <v>1000.994222092533</v>
       </c>
       <c r="W2" t="n">
-        <v>1708.319336015091</v>
+        <v>1000.994222092533</v>
       </c>
       <c r="X2" t="n">
-        <v>1708.319336015091</v>
+        <v>1000.994222092533</v>
       </c>
       <c r="Y2" t="n">
-        <v>1708.319336015091</v>
+        <v>1000.994222092533</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>712.9972286068362</v>
+        <v>340.6609820511272</v>
       </c>
       <c r="C3" t="n">
-        <v>579.0021573557819</v>
+        <v>206.6659108000729</v>
       </c>
       <c r="D3" t="n">
-        <v>462.1049995751744</v>
+        <v>89.76875301946536</v>
       </c>
       <c r="E3" t="n">
-        <v>341.6121835675023</v>
+        <v>89.76875301946536</v>
       </c>
       <c r="F3" t="n">
-        <v>232.6523037500069</v>
+        <v>34.16638672030186</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643456</v>
+        <v>34.16638672030186</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006165</v>
+        <v>34.16638672030186</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030182</v>
+        <v>34.16638672030186</v>
       </c>
       <c r="J3" t="n">
         <v>226.9792442829351</v>
       </c>
       <c r="K3" t="n">
-        <v>649.7882799466701</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="L3" t="n">
-        <v>935.6658356673728</v>
+        <v>649.7882799466706</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.474871331108</v>
+        <v>649.7882799466706</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.474871331108</v>
+        <v>649.7882799466706</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.474871331108</v>
+        <v>1072.597315610406</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.474871331108</v>
+        <v>1328.91535196848</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015091</v>
+        <v>1678.759816652463</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015091</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="S3" t="n">
-        <v>1636.997727011012</v>
+        <v>1600.329326129402</v>
       </c>
       <c r="T3" t="n">
-        <v>1636.997727011012</v>
+        <v>1440.98746231641</v>
       </c>
       <c r="U3" t="n">
-        <v>1439.64691614923</v>
+        <v>1243.636651454628</v>
       </c>
       <c r="V3" t="n">
-        <v>1225.935389142264</v>
+        <v>1029.925124447662</v>
       </c>
       <c r="W3" t="n">
-        <v>1012.702220878593</v>
+        <v>816.691956183991</v>
       </c>
       <c r="X3" t="n">
-        <v>1012.702220878593</v>
+        <v>640.3659743228839</v>
       </c>
       <c r="Y3" t="n">
-        <v>853.3002612424228</v>
+        <v>480.9640146867139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.44067739380162</v>
+        <v>690.2963448567646</v>
       </c>
       <c r="C4" t="n">
-        <v>64.44067739380162</v>
+        <v>519.2029724184811</v>
       </c>
       <c r="D4" t="n">
-        <v>64.44067739380162</v>
+        <v>359.7083277413911</v>
       </c>
       <c r="E4" t="n">
-        <v>34.16638672030182</v>
+        <v>198.7975126097106</v>
       </c>
       <c r="F4" t="n">
-        <v>34.16638672030182</v>
+        <v>34.16638672030186</v>
       </c>
       <c r="G4" t="n">
-        <v>34.16638672030182</v>
+        <v>34.16638672030186</v>
       </c>
       <c r="H4" t="n">
-        <v>34.16638672030182</v>
+        <v>34.16638672030186</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030182</v>
+        <v>34.16638672030186</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551234</v>
+        <v>48.24893612551238</v>
       </c>
       <c r="K4" t="n">
-        <v>202.8012638477503</v>
+        <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
         <v>462.6983641278109</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1478.292565016552</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.900796896462</v>
+        <v>1377.173515221062</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.352057873164</v>
+        <v>1137.624776197764</v>
       </c>
       <c r="U4" t="n">
-        <v>769.5539104192883</v>
+        <v>877.9960512508089</v>
       </c>
       <c r="V4" t="n">
-        <v>769.5539104192883</v>
+        <v>877.9960512508089</v>
       </c>
       <c r="W4" t="n">
-        <v>490.4842459281626</v>
+        <v>877.9960512508089</v>
       </c>
       <c r="X4" t="n">
-        <v>252.140383787846</v>
+        <v>877.9960512508089</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.140383787846</v>
+        <v>877.9960512508089</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>1285.591565793852</v>
       </c>
       <c r="C5" t="n">
-        <v>1671.948915169287</v>
+        <v>875.4669751071217</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.484985262347</v>
+        <v>875.0434492405863</v>
       </c>
       <c r="E5" t="n">
-        <v>853.1447697792441</v>
+        <v>864.743637797887</v>
       </c>
       <c r="F5" t="n">
-        <v>836.1547617733357</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G5" t="n">
-        <v>427.4264776661679</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>116.5179802938859</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L5" t="n">
-        <v>497.1688317915616</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>497.1688317915616</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1291.772341417937</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1291.772341417937</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L7" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M7" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N7" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O7" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P7" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q7" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1816.589795035412</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>1294.242908558238</v>
       </c>
       <c r="V7" t="n">
-        <v>774.9313507128002</v>
+        <v>1020.35716349776</v>
       </c>
       <c r="W7" t="n">
-        <v>495.8616862216745</v>
+        <v>741.2874990066346</v>
       </c>
       <c r="X7" t="n">
-        <v>495.8616862216745</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.3531027449756</v>
+        <v>558.8553848592519</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>324.6890953915677</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>318.6049087452419</v>
       </c>
       <c r="D8" t="n">
-        <v>477.7831891853775</v>
+        <v>318.1813828787065</v>
       </c>
       <c r="E8" t="n">
         <v>63.44297370227418</v>
@@ -4804,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L8" t="n">
-        <v>216.5644706858345</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M8" t="n">
-        <v>733.4074053521598</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.489158455042</v>
+        <v>731.806544067563</v>
       </c>
       <c r="Y8" t="n">
-        <v>1298.552485403132</v>
+        <v>330.8698710156531</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>508.1659581184966</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.4003990889748</v>
+        <v>472.349712609228</v>
       </c>
       <c r="C10" t="n">
-        <v>367.3070266506913</v>
+        <v>472.349712609228</v>
       </c>
       <c r="D10" t="n">
-        <v>367.3070266506913</v>
+        <v>472.349712609228</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1203.093116471976</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>929.2073714114977</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>650.137706920372</v>
+        <v>472.349712609228</v>
       </c>
       <c r="X10" t="n">
-        <v>650.137706920372</v>
+        <v>472.349712609228</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.137706920372</v>
+        <v>472.349712609228</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D11" t="n">
         <v>1585.618315208991</v>
@@ -5086,7 +5086,7 @@
         <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.3549844251424</v>
+        <v>533.7098132290409</v>
       </c>
       <c r="C13" t="n">
-        <v>494.3549844251424</v>
+        <v>440.6044708910125</v>
       </c>
       <c r="D13" t="n">
-        <v>494.3549844251424</v>
+        <v>310.9067370486074</v>
       </c>
       <c r="E13" t="n">
-        <v>494.3549844251424</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="F13" t="n">
-        <v>437.056857351242</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114703</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H13" t="n">
         <v>179.7928327516118</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.20354800875</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.20354800875</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U13" t="n">
-        <v>1391.202311389558</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V13" t="n">
-        <v>1147.113477163765</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W13" t="n">
-        <v>897.8407235073246</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="X13" t="n">
-        <v>689.2937722016928</v>
+        <v>691.6126087884005</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.3549844251424</v>
+        <v>691.6126087884005</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G14" t="n">
         <v>430.9101360764619</v>
@@ -5305,19 +5305,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T14" t="n">
         <v>4364.291146941468</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V14" t="n">
         <v>3816.986922206829</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X14" t="n">
         <v>3092.17704518032</v>
@@ -5363,22 +5363,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>440.8998387150689</v>
+        <v>496.6738210118501</v>
       </c>
       <c r="C16" t="n">
-        <v>299.6033771114703</v>
+        <v>496.6738210118501</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6033771114703</v>
+        <v>496.6738210118501</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6033771114703</v>
+        <v>496.6738210118501</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114703</v>
+        <v>361.8396059571263</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>224.3861257173545</v>
       </c>
       <c r="H16" t="n">
         <v>179.7928327516118</v>
@@ -5463,25 +5463,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1699.679355498665</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T16" t="n">
-        <v>1489.927527310052</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U16" t="n">
-        <v>1236.926290690861</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V16" t="n">
-        <v>992.8374564650679</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W16" t="n">
-        <v>743.5647028086272</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="X16" t="n">
-        <v>635.8386264916193</v>
+        <v>691.6126087884005</v>
       </c>
       <c r="Y16" t="n">
-        <v>440.8998387150689</v>
+        <v>496.6738210118501</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G17" t="n">
         <v>430.9101360764619</v>
@@ -5545,16 +5545,16 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X17" t="n">
         <v>3092.17704518032</v>
@@ -5606,10 +5606,10 @@
         <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>1615.520903630173</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
         <v>1760.328909494509</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>440.6044708910125</v>
+        <v>767.6394927281178</v>
       </c>
       <c r="C19" t="n">
-        <v>440.6044708910125</v>
+        <v>626.3430311245191</v>
       </c>
       <c r="D19" t="n">
-        <v>310.9067370486074</v>
+        <v>496.645297282114</v>
       </c>
       <c r="E19" t="n">
-        <v>179.7928327516118</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="F19" t="n">
-        <v>179.7928327516118</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="G19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200946</v>
+        <v>1329.028027369659</v>
       </c>
       <c r="V19" t="n">
-        <v>937.3616489751524</v>
+        <v>1329.028027369659</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187117</v>
+        <v>1329.028027369659</v>
       </c>
       <c r="X19" t="n">
-        <v>635.5432586675629</v>
+        <v>1120.481076064028</v>
       </c>
       <c r="Y19" t="n">
-        <v>440.6044708910125</v>
+        <v>925.5422882874774</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>430.910136076463</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.5401592942214</v>
+        <v>182.1761681670855</v>
       </c>
       <c r="C22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V22" t="n">
-        <v>937.3616489751524</v>
+        <v>992.8374564650679</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187117</v>
+        <v>743.5647028086272</v>
       </c>
       <c r="X22" t="n">
-        <v>479.54194401308</v>
+        <v>535.0177515029955</v>
       </c>
       <c r="Y22" t="n">
-        <v>284.6031562365296</v>
+        <v>340.0789637264451</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G23" t="n">
         <v>430.9101360764619</v>
@@ -6019,19 +6019,19 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y23" t="n">
         <v>2721.037282963096</v>
@@ -6074,19 +6074,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
         <v>2110.173374178493</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234.5401592942214</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6217,19 +6217,19 @@
         <v>809.8415093489459</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.216283632599</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
         <v>2110.173374178493</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.941431533028</v>
+        <v>887.813190317701</v>
       </c>
       <c r="C28" t="n">
-        <v>222.941431533028</v>
+        <v>746.5167287141023</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>616.8189948716972</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6390,7 +6390,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
         <v>927.8555407749236</v>
@@ -6408,28 +6408,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="V28" t="n">
-        <v>937.3616489751518</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="W28" t="n">
-        <v>688.0888953187109</v>
+        <v>1240.654773653611</v>
       </c>
       <c r="X28" t="n">
-        <v>479.5419440130791</v>
+        <v>1240.654773653611</v>
       </c>
       <c r="Y28" t="n">
-        <v>284.6031562365286</v>
+        <v>1045.715985877061</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764629</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6493,22 +6493,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M30" t="n">
-        <v>93.2436976906228</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N30" t="n">
-        <v>966.9017898022406</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="O30" t="n">
-        <v>1670.858880348135</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P30" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
         <v>2110.173374178493</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6031562365286</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C31" t="n">
-        <v>224.3576019876185</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="D31" t="n">
-        <v>224.3576019876185</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6627,7 +6627,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M31" t="n">
         <v>927.8555407749236</v>
@@ -6645,28 +6645,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V31" t="n">
-        <v>937.3616489751518</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187109</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130791</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365286</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281247</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560574</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489461</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388654</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I32" t="n">
-        <v>93.24369769062284</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
         <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674179</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L32" t="n">
-        <v>1598.180070079656</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M32" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N32" t="n">
-        <v>3127.679677710028</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127133</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
-        <v>4300.467232046285</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4621.628238841577</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4662.184884531142</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159927</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941471</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035666</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176685</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.177045180322</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="33">
@@ -6767,34 +6767,34 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
         <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>113.9922890703827</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>93.24369769062284</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.24369769062284</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>1210.13812587521</v>
+        <v>705.4904009953962</v>
       </c>
       <c r="M33" t="n">
-        <v>2053.115206569777</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="N33" t="n">
-        <v>2053.115206569777</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.173374178493</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P33" t="n">
         <v>2110.173374178493</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>284.6031562365286</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C34" t="n">
-        <v>284.6031562365286</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>154.9054223941234</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>93.24369769062284</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>93.24369769062284</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>93.24369769062284</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>93.24369769062284</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>93.24369769062284</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
         <v>136.5301994049079</v>
@@ -6864,7 +6864,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M34" t="n">
         <v>927.8555407749236</v>
@@ -6882,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1752.043346625801</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820136</v>
+        <v>1542.291518437188</v>
       </c>
       <c r="U34" t="n">
-        <v>1181.450483200945</v>
+        <v>1289.290281817997</v>
       </c>
       <c r="V34" t="n">
-        <v>937.3616489751518</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W34" t="n">
-        <v>688.0888953187109</v>
+        <v>795.9286939357632</v>
       </c>
       <c r="X34" t="n">
-        <v>479.5419440130791</v>
+        <v>587.3817426301315</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.6031562365286</v>
+        <v>392.442954853581</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G35" t="n">
-        <v>430.910136076462</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1253.007044501816</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>1814.712936990346</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371.9936395339932</v>
+        <v>126.70036067717</v>
       </c>
       <c r="C37" t="n">
-        <v>230.6971779303946</v>
+        <v>126.70036067717</v>
       </c>
       <c r="D37" t="n">
-        <v>230.6971779303946</v>
+        <v>126.70036067717</v>
       </c>
       <c r="E37" t="n">
-        <v>230.6971779303946</v>
+        <v>126.70036067717</v>
       </c>
       <c r="F37" t="n">
-        <v>230.6971779303946</v>
+        <v>126.70036067717</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P37" t="n">
         <v>1761.542230672484</v>
@@ -7122,25 +7122,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T37" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U37" t="n">
-        <v>1231.804974281219</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V37" t="n">
-        <v>987.7161400554254</v>
+        <v>937.3616489751524</v>
       </c>
       <c r="W37" t="n">
-        <v>738.4433863989846</v>
+        <v>688.0888953187117</v>
       </c>
       <c r="X37" t="n">
-        <v>529.8964350933528</v>
+        <v>479.54194401308</v>
       </c>
       <c r="Y37" t="n">
-        <v>529.8964350933528</v>
+        <v>284.6031562365296</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D38" t="n">
         <v>1585.618315208991</v>
@@ -7162,10 +7162,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G38" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H38" t="n">
         <v>149.7985495388648</v>
@@ -7174,7 +7174,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
         <v>885.5886702674168</v>
@@ -7204,22 +7204,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V38" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>1129.033635947823</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N39" t="n">
-        <v>1129.033635947823</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>458.5427745949823</v>
+        <v>338.7710254524906</v>
       </c>
       <c r="C40" t="n">
-        <v>317.2463129913836</v>
+        <v>197.4745638488919</v>
       </c>
       <c r="D40" t="n">
-        <v>317.2463129913836</v>
+        <v>197.4745638488919</v>
       </c>
       <c r="E40" t="n">
-        <v>317.2463129913836</v>
+        <v>197.4745638488919</v>
       </c>
       <c r="F40" t="n">
-        <v>317.2463129913836</v>
+        <v>197.4745638488919</v>
       </c>
       <c r="G40" t="n">
-        <v>179.7928327516118</v>
+        <v>197.4745638488919</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N40" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P40" t="n">
         <v>1761.542230672484</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.203548008749</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U40" t="n">
-        <v>1391.202311389558</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V40" t="n">
-        <v>1147.113477163765</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W40" t="n">
-        <v>1019.931309236524</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="X40" t="n">
-        <v>811.3843579308924</v>
+        <v>691.6126087884005</v>
       </c>
       <c r="Y40" t="n">
-        <v>616.4455701543419</v>
+        <v>496.6738210118501</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>674.4850633858673</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H41" t="n">
         <v>179.5954603735497</v>
@@ -7490,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.5005587179772</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="C43" t="n">
-        <v>370.5005587179772</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="D43" t="n">
-        <v>370.5005587179772</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="E43" t="n">
-        <v>209.5897435862967</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="F43" t="n">
-        <v>209.5897435862967</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="G43" t="n">
-        <v>209.5897435862967</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1618.689520728736</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1618.689520728736</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1618.689520728736</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1335.891373274861</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V43" t="n">
-        <v>1062.005628214383</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W43" t="n">
-        <v>782.9359637232569</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X43" t="n">
-        <v>782.9359637232569</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y43" t="n">
-        <v>558.2002651120216</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M45" t="n">
-        <v>754.331869609911</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N45" t="n">
-        <v>754.331869609911</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O45" t="n">
-        <v>1458.288960155805</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2019.994852644335</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>850.6960310278942</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>679.6026585896107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>520.1080139125206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7839,19 +7839,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1383.093855288175</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V46" t="n">
-        <v>1317.465401913064</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W46" t="n">
-        <v>1038.395737421939</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X46" t="n">
-        <v>1038.395737421939</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y46" t="n">
-        <v>1038.395737421939</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>344.8822479603615</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>522.5652320666176</v>
+        <v>522.565232066618</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>520.3700584608187</v>
       </c>
       <c r="N2" t="n">
-        <v>519.9921247603921</v>
+        <v>519.9921247603926</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>178.6088013917353</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883882</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>344.8797316095387</v>
+        <v>483.1943578146223</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421902</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>484.8313130037732</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>313.1667424352013</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L5" t="n">
-        <v>555.4891820648243</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,13 +8294,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -8309,7 +8309,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>266.9965351298663</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>292.3871721926164</v>
       </c>
       <c r="L8" t="n">
-        <v>272.0504334731806</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
@@ -8467,16 +8467,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>66.8161563599358</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>73.48479305079361</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>754.1156070065518</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8935,7 +8935,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>613.6913745331453</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9254,13 +9254,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>204.0221919942796</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>418.7392830976428</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
@@ -9722,10 +9722,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
@@ -9734,10 +9734,10 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>584.8995157759063</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>711.6624984671718</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
@@ -10199,19 +10199,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>695.4234724815018</v>
       </c>
       <c r="P30" t="n">
-        <v>498.0116489728624</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10430,10 +10430,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>674.5455372500141</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
@@ -10442,10 +10442,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>115.3859917360771</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,16 +10679,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>355.137504553472</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>695.4234724815018</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>87.41601839410231</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11378,10 +11378,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>491.1608819079409</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11396,7 +11396,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.6401345621998</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875626</v>
+        <v>47.70920807291449</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>76.76072710101519</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
@@ -23664,13 +23664,13 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>74.46507888017454</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>54.92104941501631</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>99.81266623873758</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>91.18071931201038</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X19" t="n">
-        <v>154.4413015079381</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.7614006308809</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>51.84035121586453</v>
       </c>
       <c r="D22" t="n">
         <v>128.4007565039811</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.7614006308809</v>
+        <v>52.56154735369731</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D25" t="n">
         <v>128.4007565039811</v>
@@ -24384,7 +24384,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.27866014730037</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540258</v>
+        <v>85.32412201295176</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.24039828114172</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
         <v>133.4858729041767</v>
@@ -24855,10 +24855,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>116.2529368549416</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>68.75765779756017</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
         <v>133.4858729041767</v>
@@ -25095,7 +25095,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>51.84035121586521</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037913</v>
+        <v>52.56154735369731</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.85094616947086</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>15.42388141957343</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>120.8696798719081</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>222.4997066824608</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25803,10 +25803,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>105.6739688975212</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.50644829444514</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>49.19646844041398</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26040,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V46" t="n">
-        <v>206.1747187685135</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>538974.4823795459</v>
+        <v>538974.482379546</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>548242.2413138521</v>
+        <v>548242.2413138519</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>548242.2413138521</v>
+        <v>548242.2413138519</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>548242.241313852</v>
+        <v>548242.2413138519</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>548242.2413138521</v>
+        <v>548242.241313852</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>548242.241313852</v>
+        <v>548242.2413138519</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>548242.2413138519</v>
+        <v>548242.241313852</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>548242.241313852</v>
+        <v>548242.2413138521</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>548242.2413138521</v>
+        <v>548242.241313852</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>507864.4179070725</v>
+        <v>507864.4179070726</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635241.3328265818</v>
+        <v>635241.3328265822</v>
       </c>
       <c r="C2" t="n">
         <v>635241.3328265821</v>
       </c>
       <c r="D2" t="n">
-        <v>635241.3328265822</v>
+        <v>635241.332826582</v>
       </c>
       <c r="E2" t="n">
+        <v>615612.8085600277</v>
+      </c>
+      <c r="F2" t="n">
         <v>615612.8085600276</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>615612.8085600281</v>
+      </c>
+      <c r="H2" t="n">
+        <v>615612.8085600277</v>
+      </c>
+      <c r="I2" t="n">
+        <v>615612.8085600277</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615612.8085600277</v>
+      </c>
+      <c r="K2" t="n">
+        <v>615612.8085600276</v>
+      </c>
+      <c r="L2" t="n">
+        <v>615612.8085600274</v>
+      </c>
+      <c r="M2" t="n">
+        <v>615612.8085600276</v>
+      </c>
+      <c r="N2" t="n">
         <v>615612.808560028</v>
       </c>
-      <c r="G2" t="n">
-        <v>615612.8085600275</v>
-      </c>
-      <c r="H2" t="n">
-        <v>615612.8085600276</v>
-      </c>
-      <c r="I2" t="n">
-        <v>615612.8085600276</v>
-      </c>
-      <c r="J2" t="n">
-        <v>615612.808560027</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615612.8085600274</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615612.8085600275</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615612.8085600272</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615612.8085600274</v>
-      </c>
       <c r="O2" t="n">
-        <v>564814.9016934327</v>
+        <v>564814.9016934326</v>
       </c>
       <c r="P2" t="n">
         <v>564814.9016934329</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108463</v>
+        <v>143124.2752108465</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668844</v>
+        <v>30686.46086668829</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691535</v>
+        <v>135342.0294691536</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110975</v>
+        <v>24445.77426110963</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006826</v>
+        <v>160358.4505006828</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,31 +26432,31 @@
         <v>89457.14057469094</v>
       </c>
       <c r="G4" t="n">
+        <v>89457.14057469094</v>
+      </c>
+      <c r="H4" t="n">
+        <v>89457.14057469094</v>
+      </c>
+      <c r="I4" t="n">
+        <v>89457.14057469089</v>
+      </c>
+      <c r="J4" t="n">
+        <v>89457.1405746909</v>
+      </c>
+      <c r="K4" t="n">
+        <v>89457.14057469091</v>
+      </c>
+      <c r="L4" t="n">
+        <v>89457.14057469089</v>
+      </c>
+      <c r="M4" t="n">
         <v>89457.14057469093</v>
       </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
         <v>89457.14057469093</v>
       </c>
-      <c r="I4" t="n">
-        <v>89457.14057469093</v>
-      </c>
-      <c r="J4" t="n">
-        <v>89457.14057469089</v>
-      </c>
-      <c r="K4" t="n">
-        <v>89457.14057469087</v>
-      </c>
-      <c r="L4" t="n">
-        <v>89457.14057469087</v>
-      </c>
-      <c r="M4" t="n">
-        <v>89457.14057469087</v>
-      </c>
-      <c r="N4" t="n">
-        <v>89457.14057469089</v>
-      </c>
       <c r="O4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="P4" t="n">
         <v>59647.11115782197</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742938</v>
+        <v>59594.05390742941</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26499,13 +26499,13 @@
         <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686485</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="N5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217766.5583722047</v>
+        <v>217766.5583722052</v>
       </c>
       <c r="C6" t="n">
-        <v>345439.9856256031</v>
+        <v>345439.9856256032</v>
       </c>
       <c r="D6" t="n">
-        <v>376126.4464922916</v>
+        <v>376126.4464922913</v>
       </c>
       <c r="E6" t="n">
-        <v>237081.5949279582</v>
+        <v>237031.2653785569</v>
       </c>
       <c r="F6" t="n">
-        <v>452810.5112084722</v>
+        <v>452760.1816590704</v>
       </c>
       <c r="G6" t="n">
-        <v>452810.5112084718</v>
+        <v>452760.1816590708</v>
       </c>
       <c r="H6" t="n">
-        <v>452810.5112084719</v>
+        <v>452760.1816590706</v>
       </c>
       <c r="I6" t="n">
-        <v>452810.5112084719</v>
+        <v>452760.1816590706</v>
       </c>
       <c r="J6" t="n">
-        <v>317468.4817393178</v>
+        <v>317418.152189917</v>
       </c>
       <c r="K6" t="n">
-        <v>428364.736947362</v>
+        <v>428314.4073979608</v>
       </c>
       <c r="L6" t="n">
-        <v>452810.5112084718</v>
+        <v>452760.1816590703</v>
       </c>
       <c r="M6" t="n">
-        <v>292452.0607077889</v>
+        <v>292401.7311583877</v>
       </c>
       <c r="N6" t="n">
-        <v>452810.5112084717</v>
+        <v>452760.1816590708</v>
       </c>
       <c r="O6" t="n">
-        <v>434302.5802907374</v>
+        <v>434121.9996980882</v>
       </c>
       <c r="P6" t="n">
-        <v>434302.5802907377</v>
+        <v>434121.9996980886</v>
       </c>
     </row>
   </sheetData>
@@ -26709,25 +26709,25 @@
         <v>29.49894172633803</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037728</v>
+        <v>427.0798340037732</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037728</v>
+        <v>427.0798340037732</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625278</v>
+        <v>94.98373636625233</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037728</v>
+        <v>427.0798340037732</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625278</v>
+        <v>94.98373636625233</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.482650762759</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037728</v>
+        <v>427.0798340037732</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625278</v>
+        <v>94.98373636625233</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>72.2963510300512</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>194.8593811558451</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>52.82393838314859</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>36.30171687279567</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>129.3301592135989</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.93772828185132</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>11.48287933845657</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27675,13 +27675,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>88.38728676191801</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27776,10 +27776,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300461</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.214843983191</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>158.0057882436043</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27906,19 +27906,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>11.75949205792773</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.20277457702075</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>245.6709877039211</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -29049,7 +29049,7 @@
         <v>29.49894172633803</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633697</v>
       </c>
       <c r="G23" t="n">
         <v>29.49894172633803</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="41">
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>255.7458582871444</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>427.0798340037728</v>
+        <v>427.0798340037732</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>427.0798340037732</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0798340037728</v>
+        <v>427.0798340037732</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>85.41902576595214</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0798340037728</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7652077986896</v>
+        <v>427.0798340037732</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037728</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>427.0798340037732</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>258.9071074323976</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>209.2450561298663</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="L8" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
@@ -35187,16 +35187,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>10.70163254908676</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35427,10 +35427,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>700.9222136128019</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>560.4979811393954</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>146.2707129942796</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
@@ -36442,10 +36442,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>530.6398807731025</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>658.4691050734218</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K28" t="n">
         <v>185.6124040720329</v>
@@ -36773,7 +36773,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>637.6719934815018</v>
       </c>
       <c r="P30" t="n">
-        <v>443.7520139700587</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>29.85810036629282</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K31" t="n">
         <v>185.6124040720329</v>
@@ -37010,7 +37010,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L32" t="n">
-        <v>719.7892927396344</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M32" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N32" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O32" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>618.4310134391651</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
@@ -37162,10 +37162,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.63451273607708</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K34" t="n">
         <v>185.6124040720329</v>
@@ -37247,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.4448860486332</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K37" t="n">
         <v>185.6124040720329</v>
@@ -37472,19 +37472,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N37" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37624,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>637.6719934815018</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
@@ -37709,19 +37709,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N40" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P40" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.947516057361</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
